--- a/DOM_Banner/output/dept0723/Stefano Guerra_2023.xlsx
+++ b/DOM_Banner/output/dept0723/Stefano Guerra_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,80 +447,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gang Wang, Jenny Hallberg, Rosa Faner, Hans-Jacob Koefoed, Simon Kebede Merid, Susanna Klevebro, Sophia Björkander, Olena Gruzieva, Göran Pershagen, Marianne van Hage, Stefano Guerra, Matteo Bottai, Antonios Georgelis, Ulrike Gehring, Anna Bergström, Judith M. Vonk, Inger Kull, Gerard H. Koppelman, Àlvar Agustí, Erik Melén</t>
+          <t>Gang Wang, Jenny Hallberg, Rosa Faner, Hans-Jacob Koefoed, Simon Kebede Merid, Susanna Klevebro, Sophia Björkander, Olena Gruzieva, Göran Pershagen, Marianne van Hage, Stefano Guerra, Matteo Bottai, Antonios Georgelis, Ulrike Gehring, Anna Bergström, Judith M. Vonk, Inger Kull, Gerard H. Koppelman, Álvar Agustí, Erik Melén</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Clinical Science and Education, Södersjukhuset,; Department of Integrated Traditional Chinese and Western Medicine, West China Hospital, Sichuan University, Sichuan, China;; Institute of Environmental Medicine, and; West China Biomedical Big Data Center, West China Hospital, Sichuan University, Chengdu, China;; Department of Clinical Science and Education, Södersjukhuset,; Sachs’ Children and Youth Hospital, Södersjukhuset, Stockholm, Sweden;; Centro de Investigación Biomédica en Red Enfermedades Respiratorias (CIBERES), Madrid, Spain;; Instituto de Investigaciones Biomédicas August Pi i Sunyer (IDIBAPS),; Groningen Research Institute for Asthma and COPD (GRIAC) and; Department of Clinical Science and Education, Södersjukhuset,; Department of Clinical Science and Education, Södersjukhuset,; Sachs’ Children and Youth Hospital, Södersjukhuset, Stockholm, Sweden;; Department of Clinical Science and Education, Södersjukhuset,; Centre for Occupational and Environmental Medicine, Region Stockholm, Stockholm, Sweden;; Institute of Environmental Medicine, and; Centre for Occupational and Environmental Medicine, Region Stockholm, Stockholm, Sweden;; Institute of Environmental Medicine, and; Division of Immunology and Allergy, Department of Medicine Solna, Karolinska Institutet and Karolinska University Hospital, Stockholm, Sweden;; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona;; ISGlobal, Barcelona, Spain;; Karolinska Institutet, Institute of Environmental Medicine, Stockholm, Sweden.; Centre for Occupational and Environmental Medicine, Region Stockholm, Stockholm, Sweden;; Utrecht University, Institute for Risk Assessment Sciences, Utrecht, Netherlands.; Centre for Occupational and Environmental Medicine, Region Stockholm, Stockholm, Sweden;; Institute of Environmental Medicine, and; Department of Epidemiology, University of Groningen, University Medical Center Groningen, Groningen, the Netherlands;; Groningen Research Institute for Asthma and COPD (GRIAC) and; Department of Clinical Science and Education, Södersjukhuset,; Sachs’ Children and Youth Hospital, Södersjukhuset, Stockholm, Sweden;; Department of Pediatric Pulmonology and Pediatric Allergology, Beatrix Children’s Hospital, University of Groningen, University Medical Center Groningen, Groningen, the Netherlands; Groningen Research Institute for Asthma and COPD (GRIAC) and; Centro de Investigación Biomédica en Red Enfermedades Respiratorias (CIBERES), Madrid, Spain;; Cátedra de Salud Respiratoria and; Instituto de Investigaciones Biomédicas August Pi i Sunyer (IDIBAPS),; Respiratory Institute, Hospital Clinic, University of Barcelona, Barcelona, Spain;; Department of Clinical Science and Education, Södersjukhuset,; Sachs’ Children and Youth Hospital, Södersjukhuset, Stockholm, Sweden;</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309659914</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Plasticity of Individual Lung Function States from Childhood to Adulthood</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202203-0444oc</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36409973</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202203-0444oc</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Genetics, Genomics, and Precision Medicine, and; University of Arizona, Tucson, United States; University of Arizona Arizona Health Sciences Center, Immunobiology and Medicine, Tucson, Arizona, United States; University of Arizona Health Sciences Center, Department of Medicine, Tucson, Arizona, United States; Division of Genetics, Genomics, and Precision Medicine, and; Wake Forest University, Center for Genomics and Personalized Medicine Research, School of Medicine, Winston-Salem, North Carolina, United States; Division of Pulmonary, Critical Care, and Sleep Medicine, University of Kansas School of Medicine, Kansas City, Kansas;; University of Wisconsin, Medicine-Allergy, Pulmonary and Critical Care Medicine, Madison, Wisconsin, United States; Lerner Research Institute and the Respiratory Institute, Cleveland Clinic, Cleveland, Ohio;; University of California San Francisco, San Francisco, California, United States; Wells Center for Pediatric Research and Riley Hospital for Children, Indiana University, Indianapolis, Indiana;; Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, Massachusetts;; University of Wisconsin-Madison School of Medicine and Public Health, Pulmonary and Critical Care Facility, Madison, Wisconsin, United States; Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, Massachusetts;; Department of Public Health Sciences, College of Medicine, Penn State University, Hershey, Pennsylvania;; Wake Forest School of Medicine, Winston-Salem, North Carolina, United States; Lerner Research Institute and the Respiratory Institute, Cleveland Clinic, Cleveland, Ohio;; Division of Pulmonary, Critical Care, and Sleep Medicine, Department of Internal Medicine, Yale School of Medicine, New Haven, Connecticut; and; University of Pittsburgh, Division of Pulmonary, Allergy and Critical Care Medicine, Pittsburgh, Pennsylvania, United States; UCSF, Division of Pulmonary and Critical Care Medicine, Department of Medicine and CVRI, San Francisco, California, United States; Division of Genetics, Genomics, and Precision Medicine, and; Division of Genetics, Genomics, and Precision Medicine, and</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294771423</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Low CC16 mRNA Expression Levels in Bronchial Epithelial Cells Are Associated with Asthma Severity</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202206-1230oc</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36066606</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202206-1230oc</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; University Hospital Montpellier, Montpellier, France; Department of Clinical Science and Education Södersjukhuset, Karolinska Institutet  Stockholm Sweden; Sach´s Children and Youth Hospital, Södersjukhuset  Stockholm Sweden; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Department of Pediatric Pulmonology and Pediatric Allergology, GRIAC Research Institute, University Medical Center Groningen, Beatrix Children's Hospital, University of Groningen, Groningen, the Netherlands; Division of Allergy, Immunology, and Transplantation (DAIT), National Institute of Allergy and Infectious Diseases, NIH, Bethesda, Maryland, USA; Division of Immunopathology, Department of Pathophysiology and Allergy Research, Center for Pathophysiology, Infectiology and Immunology, Medical University of Vienna, Vienna, Austria; Swiss Institute of Allergy and Asthma Research (SIAF), University of Zurich, Davos, Switzerland; MASK-air, Montpellier, France; Medical Consulting Czarlewski, Levallois, France; Division of Allergy and Immunology, Department of Pediatrics, Cincinnati Children's Hospital Medical Center, Cincinnati, Ohio, USA; Institute of Clinical Medicine and Institute of Health Sciences, Vilnius, Lithuania; Medical Faculty of Vilnius University, Vilnius, Lithuania; Institute of Environmental medicine, Karolinska Institutet, Stockholm, Sweden; Swiss Institute of Allergy and Asthma Research (SIAF), University of Zurich, Davos, Switzerland; 6AM Data Mining, Barcelona, Spain; ARIA, Montpellier, France; MASK-air, Montpellier, France; Department of Dermatology and Allergy Centre, Odense University Hospital, Odense, Denmark; Odense Research Center for Anaphylaxis « ORCA »  Odense Denmark; Quality Use of Respiratory Medicines Group, Woolcock Institute of Medical Research, Sydney, NSW, Australia; Sydney Local Health District, Sydney, NSW, Australia; Sydney Pharmacy School, The University of Sydney, Sydney, NSW, Australia; Quebec Heart and Lung Institute, Laval University, Quebec City, Quebec, Canada; Institute of Lung Health, NIHR Biomedical Research Centre, Department of Respiratory and Infection Sciences, University of Leicester, Leicester, UK; Allergy and Clinical Immunology Unit, Mauriziano Hospital, Torino, Italy; Department of Medical Sciences, University of Torino, Torino, Italy; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; CIBER Epidemiología y Salud Pública (CIBERESP)  Barcelona Spain; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Department of Biomedical Sciences, Humanitas University, Pieve Emanuele, Milan, Italy; Personalized medicine, Asthma and Allergy, IRCCS Humanitas Research Hospital, Rozzano, Milan, Italy; SOS Allergology and Clinical Immunology, USL Toscana Centro, Prato, Italy; Division of Pediatric Pulmonary Medicine, UPMC Children's Hospital of Pittsburgh, University of Pittsburgh, Pittsburgh, Pennsylvania, USA; Pneumology Unit, Hospitais da Universidade de Coimbra, Centro Hospitalar e Universitário de Coimbra  Coimbra Portugal; UCIBIO, REQUINTE, Faculty of Pharmacy and Competence Center on Active and Healthy Ageing of University of Porto (Porto4Ageing), Porto, Portugal; Fundaçao ProAR Federal University of Bahia and GARD/WHO Planning Group  Salvador Bahia Brazil; Pirkanmaa Welfare district, Tampere, Finland; Department of Pulmonary Diseases, Cerrahpaşa Faculty of Medicine Istanbul University‐Cerrahpaşa  Istanbul Turkey; Department of Otorhinolaryngology, Amsterdam University Medical Centres, Amsterdam, the Netherlands; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Ludwig Maximilians University Munich, University Hospital Munich - Instituteand Outpatient Clinic for Occupationa, Social and Environmental Medicine, Munich, Germany; Servicio de Alergia e Immunologia, Clinica Santa Isabel, Buenos Aires, Argentina; Institute for Clinical Epidemiology and Biometry University of Wuerzburg Wuerzburg Germany; Institute of Social Medicine, Epidemiology and Health Economics Charité ‐ Universitätsmedizin Berlin Berlin Germany; State Institute of Health Bavarian Health and Food Safety Authority  Erlangen Germany; Center for Rhinology and Allergology  Wiesbaden Germany; Department of Otolaryngology, Head and Neck Surgery Universitätsmedizin Mainz Mainz Germany; Division of Internal Medicine, Asthma and Allergy, Barlicki University Hospital, Medical University of Lodz, Lodz, Poland; Division of Internal Medicine, Asthma and Allergy, Barlicki University Hospital, Medical University of Lodz, Lodz, Poland; Institute of Biomedical Sciences, Department of Pathology, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Institute of Clinical Medicine, Clinic of Chest Diseases and Allergology, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Center of Excellence in Asthma and Allergy Médica Sur Clinical Foundation and Hospital  México City Mexico; Institute for Advanced Biosciences UGA ‐ INSERM U1209 ‐ CNRS UMR5309  Site Santé La Tronche France; Department of Paediatrics, Oslo University Hospital, Oslo, Norway; Department of Pulmonary Medicine CHU Liège  Liège Belgium; GIGA I3 Research Group University of Liège  Liège Belgium; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Allergy Unit "D Kalogeromitros", 2nd Department of Dermatology and Venereology, National &amp;amp; Kapodistrian University of Athens "Attikon" University Hospital Athens Greece; Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; Department of Public Health and Health Products Paris Descartes University‐Sorbonne Paris Cité EA 4064 Paris France; Paris Municipal Department of Social Action, Childhood, and Health  Paris France; Allergy Center, CUF Descobertas Hospital, Lisbon, Portugal; Clinical &amp; Experimental Respiratory Immunoallergy, IDIBAPS, CIBERES, University of Barcelona, Barcelona, Spain; Clinical &amp;amp; Experimental Respiratory Immunoallergy, IDIBAPS, CIBERES University of Barcelona  Barcelona Spain; Department of Otolaryngology - Head and Neck Surgery, Johns Hopkins School of Medicine, Baltimore, Maryland, USA; Sean N. Parker Center for Allergy and Asthma Research, Stanford University School of Medicine, Stanford, California, USA; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; Department of Allergology Medical University of Gdańsk  Gdansk Poland; Chiba Rosai Hospital, Chiba, Japan; Chiba University Hospital, Chiba, Japan; Department of Dermatology and Allergy Centre, Odense University Hospital, Odense, Denmark; Department of Infection and Immunity, Luxembourg Institute of Health, Esch-sur-Alzette, Luxembourg; Odense Research Center for Anaphylaxis « ORCA »  Odense Denmark; Allergy Department, 2nd Pediatric Clinic, University of Athens, Athens, Greece; Allergy and Respiratory Diseases, IRCCS Policlinico San Martino - University of Genoa, Genoa, Italy; Agency of Health ASL, Salerno, Italy; Division of Allergy and Clinical Immunology, Department of Medicine, "Santa Maria della Speranza" Hospital, Battipaglia, Salerno, Italy; Postgraduate Programme in Allergy and Clinical Immunology, University of Naples Federico II, Naples, Italy; Department of Pediatrics, Nippon Medical School, Tokyo, Japan; Ecole Polytechnique de Palaiseau, Palaiseau, France; IRBA (Institut de Recherche Bio‐Médicale des Armées)  Brétigny sur Orge France; Université Paris Cité  Paris France; Section of Rhinology and Allergy, Department of Otorhinolaryngology, Head and Neck Surgery University Hospital Marburg, Philipps‐Universität Marburg  Marburg Germany; Coimbra Institute for Clinical and Biomedical Research (ICBR), Faculty of Medicine, University of Coimbra, Coimbra, Portugal; Christine Kühne Center for Allergy Research and Education (CK‐Care)  Davos Switzerland; Department of Dermatology and Allergy Biederstein, School of Medicine, Technical University of Munich, Munich, Germany; Department of Otolaryngology-Head and Neck Surgery, Eye and Ear University Hospital, Beirut, Lebanon; Department of Otorhinolaryngology-Head and Neck Surgery, Dar Al Shifa Hospital, Salmiya, Kuwait; Department of Prevention of Environmental Hazards, Allergology and Immunology, Medical University of Warsaw, Warsaw, Poland; Allergy Service, Fundacion Jimenez Diaz, Autonoma University of Madrid, CIBERES-ISCIII, Madrid, Spain; French Environment and Energy Management Agency  Angers France; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; PROMISE Department, University of Palermo, Palermo, Italy; NIHR Imperial Biomedical Research Centre, London, UK; National Heart and Lung Institute, Imperial College, London, UK; Usher Institute, The University of Edinburgh, Edinburgh, UK; INSERM, Université Grenoble Alpes, IAB, U 1209, Team of Environmental Epidemiology applied to Reproduction and Respiratory Health Université Joseph Fourier  Grenoble France; CINTESIS@RISE– Health Research Network, Faculty of Medicine University of Porto Porto Portugal; MEDCIDS ‐ Department of Community Medicine, Information and Health Decision Sciences; Faculty of Medicine University of Porto Porto Portugal; German Center of Lung Research (DZL)  Munich Germany; Institute of Epidemiology Helmholtz Zentrum München ‐ German Research Center for Environmental Health Neuherberg Germany; IMIM (Hospital del Mar Medical Research Institute)  Barcelona Spain; IMIM (Hospital del Mar Medical Research Institute), Barcelona, Spain; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Department of Immunoallergology Cova da Beira University Hospital Centre  Covilhã Portugal; UBIAir ‐ Clinical &amp;amp; Experimental Lung Centre and CICS‐UBI Health Sciences Research Centre University of Beira Interior  Covilhã Portugal; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Allergy Unit Málaga Regional University Hospital of Málaga, Malaga University, ARADyAL  Malaga Spain; Health Planning Unit, Department of Social Medicine, Faculty of Medicine, University of Crete, Heraklion, Greece; International Primary Care Respiratory Group IPCRG, Aberdeen, Scotland; Department of Lung Diseases and Clinical Allergology, University of Turku, Turku, Finland; Department of Chest Medicine, Centre Hospitalier Universitaire UCL, Namur, Belgium; Université Catholique de Louvain  Yvoir Belgium; Institute of Sciences of Food Production, National Research Council (ISPA-CNR), Bari, Italy; Unit of Geriatric Immunoallergology, University of Bari Medical School, Bari, Italy; Harvard Medical School and Channing Division of Network Medicine, Boston, USA; Department of Pulmonary Diseases, Celal Bayar University, Faculty of Medicine, Manisa, Turkey; Department of Otolaryngology Head and Neck Surgery, Beijing TongRen Hospital and Beijing Institute of Otolaryngology, Beijing, China; Allergy &amp;amp; Immunology Centre Pantai Hospital Kuala Lumpur Kuala Lumpur Malaysia; Department of Dermatology, Medical University of Graz, Graz, Austria; Faculty of Medicine, Transylvania University of Brasov, Brasov, Romania; Microbiology Department, College of Medicine, Kuwait University, Kuwait City, Kuwait; Centro Médico Teknon  Barcelona Spain; Institut d'Investigacions Biomèdiques August Pi i Sunyer (IDIBAPS)  Barcelona Spain; Department of Allergy and Immunology, Hospital Quironsalud Bizkaia, Bilbao, Spain; Clinical and Experimental Sciences, Faculty of Medicine, University of Southampton, Southampton, UK; David Hide Asthma and Allergy Research Centre, Isle of Wight, UK; Argentine Society of Allergy and Immunopathology, Buenos Aires, Argentina; Portuguese National Programme for Respiratory Diseases, Direção ‐Geral da Saúde, Faculdade de Medicina de Lisboa Instituto de Saúde Ambiental  Lisbon Portugal; Department of Otorhinolaryngology, Head and Neck, School of Medical Sciences, Universiti Sains Malaysia, Kelantan, Malaysia; Mongolian Association of Hospital Managers, Ulaanbaatar, Mongolia; Department of Respiratory Medicine, National Institute of Diseases of the Chest and Hospital, Dhaka, Bangladesh; Department of Pediatrics, Carol Davila University of Medicine and Pharmacy, Bucharest, Romania; Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; Division of Immunology, Allergy and Rheumatology, Department of Medicine, University of Cincinnati College of Medicine, Cincinnati, Ohio, USA; University of Central Lancashire Medical School, Preston, UK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321169210</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Rhinitis associated with asthma is distinct from rhinitis alone: The &lt;scp&gt;ARIA‐MeDALL&lt;/scp&gt; hypothesis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Allergy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/all.15679</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36799120</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/all.15679</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Toronto, Toronto, Ontario, Canada;; Division of Respirology, Department of Medicine, University Health Network, Toronto, Ontario, Canada; Division of Pulmonary, Allergy and Critical Care, Department of Medicine, Duke University Medical Center, Durham, North Carolina, USA; Duke Clinical Research Institute, Durham, North Carolina, USA; Department of Surgery, Washington University School of Medicine, St. Louis, Missouri, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy and Critical Care, Department of Medicine, Duke University Medical Center, Durham, North Carolina, USA; Duke Clinical Research Institute, Durham, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310470889</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Club Cell Secretory Protein in Lung Disease: Emerging Concepts and Potential Therapeutics</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-01-27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Annual Review of Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Annual Reviews</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1146/annurev-med-042921-123443</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36450281</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1146/annurev-med-042921-123443</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Pulmonary and Critical Care Medicine, Baylor College of Medicine, Houston, TX, 77030, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Geneticure, Rochester, MN, 55902, USA; Cardiovascular Diseases, Mayo Clinic Scottsdale, Scottsdale, AZ, 85259, USA; Division of Pulmonary, Allergy and Critical Care Medicine, University of Alabama at Birmingham, Birmingham, AL, 35924, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310062070</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Lower respiratory illnesses in childhood are associated with the presence of air trapping in early adulthood</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Respiratory Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36508986</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; tcarr@deptofmed.arizona.edu.; University of Arizona HSC, Tucson, Arizona, United States.; University of Arizona, Department of Pediatrics, Tucson, Arizona, United States.; University of Arizona, Tucson, United States.; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311663240</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Elevated Childhood Insulin-related Asthma Is a Risk Factor for Reduced Lung Function</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36521027</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Department of Maternal Infantile and Urological Sciences “Sapienza” University of Rome  Rome Italy; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4327604009</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Cytomegalovirus serology in young to mid‐adult life and decline of lung function</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Clinical Respiratory Journal</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/crj.13600</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36924061</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/crj.13600</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center,; ISGlobal, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Cellular and Molecular Medicine,; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Instituto de Salud Global Barcelona, Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Asthma and Airway Disease Research Center,; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Molecular and Cellular Biology,; BIO5 Institute, and; Department of Epidemiology and Biostatistics, University of Arizona Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona;; University of Groningen, University Medical Center Groningen, Department of Pulmonology and Pediatric Allergy, Beatrix Children's Hospital, Groningen, Netherlands; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, 38700 La Tronche, France;; CIBER de Fisiopatología de la Obesidad y Nutricion (CIBEROBN), Institute of Health Carlos III, Madrid, Spain;; Cardiovascular Risk and Nutrition Group and; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; Department of Clinical Science and Education and; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Bradford Institute for Health Research, Bradford, United Kingdom;; Bradford Institute for Health Research, Bradford, United Kingdom of Great Britain and Northern Ireland; Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; Pediatrics Service, Hospital de Zumárraga, Gipuzkoa, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Respiratory and Environmental Epidemiology Team, INSERM 1018, CESP Centre, Villejuif, France; University Hospital Montpellier, France; and; Asthma and Airway Disease Research Center,; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286750379</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Creatine Kinase Is Decreased in Childhood Asthma</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35876143</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nipasiri Voraphani, Debra A. Stern, Julie G. Ledford, Amber Spangenberg, Jing Zhai, Anne L. Wright, Wayne J. Morgan, Monica Kraft, Duane L. Sherrill, John A. Curtin, Clare Murray, Adnan Čustović, Inger Kull, Jenny Hallberg, Anna Bergström, Esther Herrera‐Luis, Marilyn Halonen, Fernando D. Martínez, Angela Simpson, Erik Melén, Stefano Guerra</t>
+          <t>Natalie Iannuzo, Alane Blythe C. Dy, Stefano Guerra, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385410816</t>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Circulating CC16 and Asthma: A Population-based, Multicohort Study from Early Childhood through Adult Life</t>
+          <t>https://openalex.org/W4385461556</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during Mycoplasma pneumoniae Infection in Mouse Tracheal Epithelial Cells</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>American Journal of Respiratory and Critical Care Medicine</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>Cells</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3390/cells12151984</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37523710</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37566063</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/cells12151984</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Alane Blythe C. Dy, Stefano Guerra, Paul Langlais, Julie G. Ledford</t>
+          <t>Nipasiri Voraphani, Debra A. Stern, Julie G. Ledford, Amber Spangenberg, Jing Zhai, Anne L. Wright, Wayne J. Morgan, Monica Kraft, Duane L. Sherrill, John A. Curtin, Clare Murray, Adnan Čustović, Inger Kull, Jenny Hallberg, Anna Bergström, Esther Herrera‐Luis, Marilyn Halonen, Fernando D. Martínez, Angela Simpson, Erik Melén, Stefano Guerra</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385461556</t>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Department of Pediatrics, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Imperial College London National Heart and Lung Institute, 90897, London, United Kingdom of Great Britain and Northern Ireland; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Karolinska Institute Institute of Environmental Medicine, 193414, Stockholm, Sweden; University of La Laguna, 16749, Department of Biochemistry, Microbiology, Cell Biology and Genetics, La Laguna, Islas Canarias, Spain; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during Mycoplasma pneumoniae Infection in Mouse Tracheal Epithelial Cells</t>
+          <t>https://openalex.org/W4385410816</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>Circulating CC16 and Asthma: A Population-based, Multicohort Study from Early Childhood through Adult Life</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cells12151984</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37566063</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cells12151984</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37523710</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,39 +1322,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, and; Mel and Enid Zuckerman College of Public Health,; Mel and Enid Zuckerman College of Public Health,; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312067545</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Association of Childhood Respiratory Status with Adult Occupational Exposures in a Birth Cohort</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Annals of the American Thoracic Society</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36538681</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Dept of Pediatrics, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367609570</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Congruence Between Remote and In-person Spirometry in the Tucson Children's Respiratory Study</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,14 +1434,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,24 +1496,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379374962</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during &amp;lt;em&amp;gt;Mycoplasma pneumoniae&amp;lt;/em&amp;gt; Infection</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>6AM Data Mining, Barcelona, Spain; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, La Tronche, France; Department of Clinical Science and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Institute of Environmental Medicine, Karolinska Institutet, Stockholm, Sweden; Asthma and Airway Disease Research Center, University of Arizona, Tucson, USA; Institute for Clinical Epidemiology and Biometry, University of Würzburg, Würzburg, Germany; Department of Pediatric Pulmonology and Pediatric Allergology, GRIAC Research Institute, Beatrix Children’s Hospital, University Medical Center Groningen, University of Groningen, Groningen, The Netherlands; Division of Pediatric Pulmonary Medicine, UPMC Children’s Hospital of Pittsburgh, University of Pittsburgh, Pittsburgh, USA; CIBER Epidemiología y Salud Pública (CIBERESP), Madrid, Spain; Institute of Allergology, Charité–Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt-Universität zu Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385780840</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Distinction between rhinitis alone and rhinitis with asthma using interactomics</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-08-12</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-023-39987-6</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37573373</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-023-39987-6</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,39 +1670,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386284562</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Populism and Constitutional Democracy in Times of Crisis</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>La Cittadinanza europea</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>FrancoAngeli</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.3280/ceu2023-001007</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>it</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.3280/ceu2023-001007</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,39 +1757,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>ISGlobal Instituto de Salud Global, Campus Mar, Barcelona, Catalunya, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; Unit of Epidemiology and Medical Statistics, Department of Diagnostics and Public Health, University of Verona, Verona, Italy; Allergy and Lung Health Unit, School of Population and Global Health, The University of Melbourne, Parkville, Victoria, Australia; Université Paris-Saclay, UVSQ, Univ Paris-Sud, Inserm, INSERM, Paris, France; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; Institute for Environment and Sustainable Development (IMDO), University of Antwerp, Antwerpen, Belgium; Social Epidemiology and Health Policy, Department of Family Medicine and Population Health, University of Antwerp, Antwerpen, Belgium; Epidemiology and Public Health, Swiss Tropical and Public Health Institute, Basel, Switzerland; Département de Pneumologie et Addictologie, University Hospital of Montpellier, Montpellier, France; IDESP, University of Montpellier - Inserm UMR UA11, Montpellier, France; Department of Public Health and Clinical Medicine, Umeå University, Umeå, Sweden; Department of Sleep, Landspitali University Hospital, Reykjavik, Iceland; Medical Faculty, University of Iceland, Iceland, Iceland; Department of Internal Medicine and Therapeutics, University of Pavia, Italy, Italy; Division of Respiratory Diseases, Fondazione IRCCS Policlinico San Matteo—University of Pavia, Pavia, Italy; Department of Medical Sciences, Respiratory, Allergy and Sleep Research, Uppsala University, Uppsala, Sweden; Lung Clinic, Tartu University Hospital, Tartu, Estonia; Faculty of Medicine of Albacete, General University Hospital of Albacete, Albacete, Spain; Institute and Clinic for Occupational and Environmental Medicine, University Hospital, LMU Munich, Comprehensive Pneumology Centre Munich, member DZL, German Centre for Lung Research, Munich, Germany; Distrito Sanitario Huelva-Costa, Huelva, Spain; Department of Pediatrics, CHU de Grenoble Alpes, Grenoble, France; Inserm, UMR 1209, Institute for Advanced Biosciences, Grenoble, France; Epidemiology and Public Health, Swiss Tropical and Public Health Institute, Basel, Switzerland; Inserm, UMR 1219, Université de Bordeaux, Bordeaux, France; Department of Public Health and Pediatrics, University of Turin, Torino, Piemonte, Italy; Centre for International Health, Department of Global Public Health and Primary Care, University of Bergen, Bergen, Norway; Department of Occupational Medicine, Haukeland University Hospital, Bergen, Norway; Department of Occupational and Environmental Medicine, Sahlgrenska University Hospital, Gothenburg, Sweden; Department of Occupational and Environmental, School of Public Health and Community Medicine, Institute of Medicine, Sahlgrenska Academy at University of Gothenburg, Gothenburg, Sweden; Pulmonology Department, Galdakao Hospital, Biocruces Bizkaia, Spain; Epidemiological Surveillance Section, Directorate General of Public Health, Oviedo, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; National Heart and Lung Institute, Imperial College, London, UK; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; ISGlobal, Campus mar, Barcelona, Catalunya, Spain</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387093076</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Spirometric patterns in young and middle-aged adults: a 20-year European study</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Thorax</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/thorax-2022-219696</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1717,35 +1797,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37758456</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/thorax-2022-219696</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,27 +1839,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael G. Johnson, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387898634</t>
+          <t>University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; Basis Tucson North, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>https://openalex.org/W4387979514</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael G. Johnson, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
+          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael D. L. Johnson, Joselyn Rojas, Francesca Polverino, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387979514</t>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; BASIS Tucson North, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Baylor College of Medicine, Houston, TX, United States; Baylor College of Medicine, Houston, TX, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Genetics, Genomics, and Precision Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
+          <t>https://openalex.org/W4388832621</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers in Immunology</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388485265</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4387898634</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2023-11-08</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,80 +2100,85 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael D. L. Johnson, Joselyn Rojas, Francesca Polverino, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388832621</t>
+          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
+          <t>https://openalex.org/W4388485265</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Frontiers in Immunology</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0723/Stefano Guerra_2023.xlsx
+++ b/DOM_Banner/output/dept0723/Stefano Guerra_2023.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gang Wang, Jenny Hallberg, Rosa Faner, Hans-Jacob Koefoed, Simon Kebede Merid, Susanna Klevebro, Sophia Björkander, Olena Gruzieva, Göran Pershagen, Marianne van Hage, Stefano Guerra, Matteo Bottai, Antonios Georgelis, Ulrike Gehring, Anna Bergström, Judith M. Vonk, Inger Kull, Gerard H. Koppelman, Álvar Agustí, Erik Melén</t>
+          <t>Gang Wang, Jenny Hallberg, Rosa Faner, Hans-Jacob Koefoed, Simon Kebede Merid, Susanna Klevebro, Sophia Björkander, Olena Gruzieva, Göran Pershagen, Marianne van Hage, Stefano Guerra, Matteo Bottai, Antonios Georgelis, Ulrike Gehring, Anna Bergström, Judith M. Vonk, Inger Kull, Gerard H. Koppelman, Àlvar Agustí, Erik Melén</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -621,47 +621,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jean Bousquet, Erik Melén, Tari Haahtela, Gerard H. Koppelman, Alkis Togias, Rudolf Valenta, Cezmi A. Akdiş, W. Czarlewski, Marc E. Rothenberg, Arũnas Valiulis, Magnus Wickman, Mübeccel Akdiş, Daniel Aguilar, Jean Bousquet, Carsten Bindslev‐Jensen, Sinthia Bosnic‐Anticevich, Louis‐Philippe Boulet, Christopher E. Brightling, Luisa Brussino, Emilie Burte, Mariona Bustamante, Giorgio Walter Canonica, Lorenzo Cecchi, Juan C. Celedón, Cláudia Chaves Loureiro, Elı́sio Costa, Álvaro A. Cruz, Marina Erhola, Bilun Gemicioğlu, Wytske J. Fokkens, Judith García-Aymerich, Stefano Guerra, Joachim Heinrich, Juan Carlos Ivancevich, Thomas Keil, Ludger Klimek, Piotr Kuna, Maciej Kupczyk, Violeta Kvedarienė, Désirée Larenas‐Linnemann, Nicolas Lemonnier, Karin C. Lødrup Carlsen, Renaud Louis, Mika J. Mäkelä, Michael Makris, Marcus Maurer, Isabelle Momas, Mário Morais‐Almeida, Joaquim Mullol, Robert Naclerio, Kari Nadeau, Rachel Nadif, Marek Niedoszytko, Yoshitaka Okamoto, Markus Ollert, Nikolaos G. Papadopoulos, Giovanni Passalacqua, Vincenzo Patella, Ruby Pawankar, N. Pham‐Thi, Oliver Pfaar, Frederico S. Regateiro, Johannes Ring, Philip W. Rouadi, Bolesław Samoliński, Joaquı́n Sastre, Marine Savouré, Nicola Scichilone, Mohamed H. Shamji, Aziz Sheikh, Valérie Siroux, Bernardo Sousa‐Pinto, Marie Standl, Jordi Sunyer, Luís Taborda‐Barata, Sanna Toppila‐Salmi, M.J. Torres, Ioanna Tsiligianni, Erkka Valovirta, Olivier Vandenplas, M. T. Ventura, Scott T. Weiss, Arzu Yorgancıoğlu, Luo Zhang, Amir Hamzah Abdul Latiff, Werner Aberer, Ioana Agache, Mona Al‐Ahmad, I Alobid, Ignacio J. Ansotegui, Syed Hasan Arshad, Estrella Asayag, Cristina Bárbara, Baharudin Abdullah, Battur Lkhagvaa, Kazi Saifuddin Bennoor, Elena Camelia Berghea, Karl‐Christian Bergmann, David I Bernstein, Mike Bewick</t>
+          <t>T. Martinu, Jamie L. Todd, Andrew E. Gelman, Stefano Guerra, Scott M. Palmer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; University Hospital Montpellier, Montpellier, France; Department of Clinical Science and Education Södersjukhuset, Karolinska Institutet  Stockholm Sweden; Sach´s Children and Youth Hospital, Södersjukhuset  Stockholm Sweden; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Department of Pediatric Pulmonology and Pediatric Allergology, GRIAC Research Institute, University Medical Center Groningen, Beatrix Children's Hospital, University of Groningen, Groningen, the Netherlands; Division of Allergy, Immunology, and Transplantation (DAIT), National Institute of Allergy and Infectious Diseases, NIH, Bethesda, Maryland, USA; Division of Immunopathology, Department of Pathophysiology and Allergy Research, Center for Pathophysiology, Infectiology and Immunology, Medical University of Vienna, Vienna, Austria; Swiss Institute of Allergy and Asthma Research (SIAF), University of Zurich, Davos, Switzerland; MASK-air, Montpellier, France; Medical Consulting Czarlewski, Levallois, France; Division of Allergy and Immunology, Department of Pediatrics, Cincinnati Children's Hospital Medical Center, Cincinnati, Ohio, USA; Institute of Clinical Medicine and Institute of Health Sciences, Vilnius, Lithuania; Medical Faculty of Vilnius University, Vilnius, Lithuania; Institute of Environmental medicine, Karolinska Institutet, Stockholm, Sweden; Swiss Institute of Allergy and Asthma Research (SIAF), University of Zurich, Davos, Switzerland; 6AM Data Mining, Barcelona, Spain; ARIA, Montpellier, France; MASK-air, Montpellier, France; Department of Dermatology and Allergy Centre, Odense University Hospital, Odense, Denmark; Odense Research Center for Anaphylaxis « ORCA »  Odense Denmark; Quality Use of Respiratory Medicines Group, Woolcock Institute of Medical Research, Sydney, NSW, Australia; Sydney Local Health District, Sydney, NSW, Australia; Sydney Pharmacy School, The University of Sydney, Sydney, NSW, Australia; Quebec Heart and Lung Institute, Laval University, Quebec City, Quebec, Canada; Institute of Lung Health, NIHR Biomedical Research Centre, Department of Respiratory and Infection Sciences, University of Leicester, Leicester, UK; Allergy and Clinical Immunology Unit, Mauriziano Hospital, Torino, Italy; Department of Medical Sciences, University of Torino, Torino, Italy; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; CIBER Epidemiología y Salud Pública (CIBERESP)  Barcelona Spain; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Department of Biomedical Sciences, Humanitas University, Pieve Emanuele, Milan, Italy; Personalized medicine, Asthma and Allergy, IRCCS Humanitas Research Hospital, Rozzano, Milan, Italy; SOS Allergology and Clinical Immunology, USL Toscana Centro, Prato, Italy; Division of Pediatric Pulmonary Medicine, UPMC Children's Hospital of Pittsburgh, University of Pittsburgh, Pittsburgh, Pennsylvania, USA; Pneumology Unit, Hospitais da Universidade de Coimbra, Centro Hospitalar e Universitário de Coimbra  Coimbra Portugal; UCIBIO, REQUINTE, Faculty of Pharmacy and Competence Center on Active and Healthy Ageing of University of Porto (Porto4Ageing), Porto, Portugal; Fundaçao ProAR Federal University of Bahia and GARD/WHO Planning Group  Salvador Bahia Brazil; Pirkanmaa Welfare district, Tampere, Finland; Department of Pulmonary Diseases, Cerrahpaşa Faculty of Medicine Istanbul University‐Cerrahpaşa  Istanbul Turkey; Department of Otorhinolaryngology, Amsterdam University Medical Centres, Amsterdam, the Netherlands; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Ludwig Maximilians University Munich, University Hospital Munich - Instituteand Outpatient Clinic for Occupationa, Social and Environmental Medicine, Munich, Germany; Servicio de Alergia e Immunologia, Clinica Santa Isabel, Buenos Aires, Argentina; Institute for Clinical Epidemiology and Biometry University of Wuerzburg Wuerzburg Germany; Institute of Social Medicine, Epidemiology and Health Economics Charité ‐ Universitätsmedizin Berlin Berlin Germany; State Institute of Health Bavarian Health and Food Safety Authority  Erlangen Germany; Center for Rhinology and Allergology  Wiesbaden Germany; Department of Otolaryngology, Head and Neck Surgery Universitätsmedizin Mainz Mainz Germany; Division of Internal Medicine, Asthma and Allergy, Barlicki University Hospital, Medical University of Lodz, Lodz, Poland; Division of Internal Medicine, Asthma and Allergy, Barlicki University Hospital, Medical University of Lodz, Lodz, Poland; Institute of Biomedical Sciences, Department of Pathology, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Institute of Clinical Medicine, Clinic of Chest Diseases and Allergology, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Center of Excellence in Asthma and Allergy Médica Sur Clinical Foundation and Hospital  México City Mexico; Institute for Advanced Biosciences UGA ‐ INSERM U1209 ‐ CNRS UMR5309  Site Santé La Tronche France; Department of Paediatrics, Oslo University Hospital, Oslo, Norway; Department of Pulmonary Medicine CHU Liège  Liège Belgium; GIGA I3 Research Group University of Liège  Liège Belgium; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Allergy Unit "D Kalogeromitros", 2nd Department of Dermatology and Venereology, National &amp;amp; Kapodistrian University of Athens "Attikon" University Hospital Athens Greece; Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; Department of Public Health and Health Products Paris Descartes University‐Sorbonne Paris Cité EA 4064 Paris France; Paris Municipal Department of Social Action, Childhood, and Health  Paris France; Allergy Center, CUF Descobertas Hospital, Lisbon, Portugal; Clinical &amp; Experimental Respiratory Immunoallergy, IDIBAPS, CIBERES, University of Barcelona, Barcelona, Spain; Clinical &amp;amp; Experimental Respiratory Immunoallergy, IDIBAPS, CIBERES University of Barcelona  Barcelona Spain; Department of Otolaryngology - Head and Neck Surgery, Johns Hopkins School of Medicine, Baltimore, Maryland, USA; Sean N. Parker Center for Allergy and Asthma Research, Stanford University School of Medicine, Stanford, California, USA; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; Department of Allergology Medical University of Gdańsk  Gdansk Poland; Chiba Rosai Hospital, Chiba, Japan; Chiba University Hospital, Chiba, Japan; Department of Dermatology and Allergy Centre, Odense University Hospital, Odense, Denmark; Department of Infection and Immunity, Luxembourg Institute of Health, Esch-sur-Alzette, Luxembourg; Odense Research Center for Anaphylaxis « ORCA »  Odense Denmark; Allergy Department, 2nd Pediatric Clinic, University of Athens, Athens, Greece; Allergy and Respiratory Diseases, IRCCS Policlinico San Martino - University of Genoa, Genoa, Italy; Agency of Health ASL, Salerno, Italy; Division of Allergy and Clinical Immunology, Department of Medicine, "Santa Maria della Speranza" Hospital, Battipaglia, Salerno, Italy; Postgraduate Programme in Allergy and Clinical Immunology, University of Naples Federico II, Naples, Italy; Department of Pediatrics, Nippon Medical School, Tokyo, Japan; Ecole Polytechnique de Palaiseau, Palaiseau, France; IRBA (Institut de Recherche Bio‐Médicale des Armées)  Brétigny sur Orge France; Université Paris Cité  Paris France; Section of Rhinology and Allergy, Department of Otorhinolaryngology, Head and Neck Surgery University Hospital Marburg, Philipps‐Universität Marburg  Marburg Germany; Coimbra Institute for Clinical and Biomedical Research (ICBR), Faculty of Medicine, University of Coimbra, Coimbra, Portugal; Christine Kühne Center for Allergy Research and Education (CK‐Care)  Davos Switzerland; Department of Dermatology and Allergy Biederstein, School of Medicine, Technical University of Munich, Munich, Germany; Department of Otolaryngology-Head and Neck Surgery, Eye and Ear University Hospital, Beirut, Lebanon; Department of Otorhinolaryngology-Head and Neck Surgery, Dar Al Shifa Hospital, Salmiya, Kuwait; Department of Prevention of Environmental Hazards, Allergology and Immunology, Medical University of Warsaw, Warsaw, Poland; Allergy Service, Fundacion Jimenez Diaz, Autonoma University of Madrid, CIBERES-ISCIII, Madrid, Spain; French Environment and Energy Management Agency  Angers France; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; PROMISE Department, University of Palermo, Palermo, Italy; NIHR Imperial Biomedical Research Centre, London, UK; National Heart and Lung Institute, Imperial College, London, UK; Usher Institute, The University of Edinburgh, Edinburgh, UK; INSERM, Université Grenoble Alpes, IAB, U 1209, Team of Environmental Epidemiology applied to Reproduction and Respiratory Health Université Joseph Fourier  Grenoble France; CINTESIS@RISE– Health Research Network, Faculty of Medicine University of Porto Porto Portugal; MEDCIDS ‐ Department of Community Medicine, Information and Health Decision Sciences; Faculty of Medicine University of Porto Porto Portugal; German Center of Lung Research (DZL)  Munich Germany; Institute of Epidemiology Helmholtz Zentrum München ‐ German Research Center for Environmental Health Neuherberg Germany; IMIM (Hospital del Mar Medical Research Institute)  Barcelona Spain; IMIM (Hospital del Mar Medical Research Institute), Barcelona, Spain; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Department of Immunoallergology Cova da Beira University Hospital Centre  Covilhã Portugal; UBIAir ‐ Clinical &amp;amp; Experimental Lung Centre and CICS‐UBI Health Sciences Research Centre University of Beira Interior  Covilhã Portugal; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Allergy Unit Málaga Regional University Hospital of Málaga, Malaga University, ARADyAL  Malaga Spain; Health Planning Unit, Department of Social Medicine, Faculty of Medicine, University of Crete, Heraklion, Greece; International Primary Care Respiratory Group IPCRG, Aberdeen, Scotland; Department of Lung Diseases and Clinical Allergology, University of Turku, Turku, Finland; Department of Chest Medicine, Centre Hospitalier Universitaire UCL, Namur, Belgium; Université Catholique de Louvain  Yvoir Belgium; Institute of Sciences of Food Production, National Research Council (ISPA-CNR), Bari, Italy; Unit of Geriatric Immunoallergology, University of Bari Medical School, Bari, Italy; Harvard Medical School and Channing Division of Network Medicine, Boston, USA; Department of Pulmonary Diseases, Celal Bayar University, Faculty of Medicine, Manisa, Turkey; Department of Otolaryngology Head and Neck Surgery, Beijing TongRen Hospital and Beijing Institute of Otolaryngology, Beijing, China; Allergy &amp;amp; Immunology Centre Pantai Hospital Kuala Lumpur Kuala Lumpur Malaysia; Department of Dermatology, Medical University of Graz, Graz, Austria; Faculty of Medicine, Transylvania University of Brasov, Brasov, Romania; Microbiology Department, College of Medicine, Kuwait University, Kuwait City, Kuwait; Centro Médico Teknon  Barcelona Spain; Institut d'Investigacions Biomèdiques August Pi i Sunyer (IDIBAPS)  Barcelona Spain; Department of Allergy and Immunology, Hospital Quironsalud Bizkaia, Bilbao, Spain; Clinical and Experimental Sciences, Faculty of Medicine, University of Southampton, Southampton, UK; David Hide Asthma and Allergy Research Centre, Isle of Wight, UK; Argentine Society of Allergy and Immunopathology, Buenos Aires, Argentina; Portuguese National Programme for Respiratory Diseases, Direção ‐Geral da Saúde, Faculdade de Medicina de Lisboa Instituto de Saúde Ambiental  Lisbon Portugal; Department of Otorhinolaryngology, Head and Neck, School of Medical Sciences, Universiti Sains Malaysia, Kelantan, Malaysia; Mongolian Association of Hospital Managers, Ulaanbaatar, Mongolia; Department of Respiratory Medicine, National Institute of Diseases of the Chest and Hospital, Dhaka, Bangladesh; Department of Pediatrics, Carol Davila University of Medicine and Pharmacy, Bucharest, Romania; Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; Division of Immunology, Allergy and Rheumatology, Department of Medicine, University of Cincinnati College of Medicine, Cincinnati, Ohio, USA; University of Central Lancashire Medical School, Preston, UK</t>
+          <t>Department of Medicine, University of Toronto, Toronto, Ontario, Canada;; Division of Respirology, Department of Medicine, University Health Network, Toronto, Ontario, Canada; Division of Pulmonary, Allergy and Critical Care, Department of Medicine, Duke University Medical Center, Durham, North Carolina, USA; Duke Clinical Research Institute, Durham, North Carolina, USA; Department of Surgery, Washington University School of Medicine, St. Louis, Missouri, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy and Critical Care, Department of Medicine, Duke University Medical Center, Durham, North Carolina, USA; Duke Clinical Research Institute, Durham, North Carolina, USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321169210</t>
+          <t>https://openalex.org/W4310470889</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rhinitis associated with asthma is distinct from rhinitis alone: The &lt;scp&gt;ARIA‐MeDALL&lt;/scp&gt; hypothesis</t>
+          <t>Club Cell Secretory Protein in Lung Disease: Emerging Concepts and Potential Therapeutics</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Allergy</t>
+          <t>Annual Review of Medicine</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Annual Reviews</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/all.15679</t>
+          <t>https://doi.org/10.1146/annurev-med-042921-123443</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36799120</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36450281</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/all.15679</t>
+          <t>https://doi.org/10.1146/annurev-med-042921-123443</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,47 +708,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T. Martinu, Jamie L. Todd, Andrew E. Gelman, Stefano Guerra, Scott M. Palmer</t>
+          <t>Jean Bousquet, Erik Melén, Tari Haahtela, Gerard H. Koppelman, Alkis Togias, Rudolf Valenta, Cezmi A. Akdiş, W. Czarlewski, Marc E. Rothenberg, Arūnas Valiulis, Magnus Wickman, Mübeccel Akdiş, Daniel Aguilar, Jean Bousquet, Carsten Bindslev‐Jensen, Sinthia Bosnic‐Anticevich, Louis‐Philippe Boulet, Christopher E. Brightling, Luisa Brussino, Emilie Burte, Mariona Bustamante, Giorgio Walter Canonica, Lorenzo Cecchi, Juan C. Celedón, Cláudia Chaves Loureiro, Elı́sio Costa, Álvaro A. Cruz, Marina Erhola, Bilun Gemicioğlu, Wytske J. Fokkens, Judith Garcia‐Aymerich, Stefano Guerra, Joachim Heinrich, Juan Carlos Ivancevich, Thomas Keil, Ludger Klimek, Piotr Kuna, Maciej Kupczyk, Violeta Kvedarienė, Désirée Larenas‐Linnemann, Nicolas Lemonnier, Karin C. Lødrup Carlsen, Renaud Louis, Mika J. Mäkelä, Michael Makris, Marcus Maurer, Isabelle Momas, Mário Morais‐Almeida, Joaquim Mullol, Robert Naclerio, Kari Nadeau, Rachel Nadif, Marek Niedoszytko, Yoshitaka Okamoto, Markus Ollert, Nikolaos G. Papadopoulos, Giovanni Passalacqua, Vincenzo Patella, Ruby Pawankar, N. Pham‐Thi, Oliver Pfaar, Frederico S. Regateiro, Johannes Ring, Philip W. Rouadi, Bolesław Samoliński, Joaquı́n Sastre, Marine Savouré, Nicola Scichilone, Mohamed H. Shamji, Aziz Sheikh, Valérie Siroux, Bernardo Sousa‐Pinto, Marie Standl, Jordi Sunyer, Luís Taborda‐Barata, Sanna Toppila‐Salmi, M.J. Torres, Ioanna Tsiligianni, Erkka Valovirta, Olivier Vandenplas, M. T. Ventura, Scott T. Weiss, Arzu Yorgancıoğlu, Luo Zhang, Amir Hamzah Abdul Latiff, Werner Aberer, Ioana Agache, Mona Al‐Ahmad, I Alobid, Ignacio J. Ansotegui, Syed Hasan Arshad, Estrella Asayag, Cristina Bárbara, Baharudin Abdullah, Battur Lkhagvaa, Kazi Saifuddin Bennoor, Elena Camelia Berghea, Karl‐Christian Bergmann, David I Bernstein, Mike Bewick</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Toronto, Toronto, Ontario, Canada;; Division of Respirology, Department of Medicine, University Health Network, Toronto, Ontario, Canada; Division of Pulmonary, Allergy and Critical Care, Department of Medicine, Duke University Medical Center, Durham, North Carolina, USA; Duke Clinical Research Institute, Durham, North Carolina, USA; Department of Surgery, Washington University School of Medicine, St. Louis, Missouri, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Division of Pulmonary, Allergy and Critical Care, Department of Medicine, Duke University Medical Center, Durham, North Carolina, USA; Duke Clinical Research Institute, Durham, North Carolina, USA</t>
+          <t>Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; University Hospital Montpellier, Montpellier, France; Department of Clinical Science and Education Södersjukhuset, Karolinska Institutet  Stockholm Sweden; Sach´s Children and Youth Hospital, Södersjukhuset  Stockholm Sweden; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Department of Pediatric Pulmonology and Pediatric Allergology, GRIAC Research Institute, University Medical Center Groningen, Beatrix Children's Hospital, University of Groningen, Groningen, the Netherlands; Division of Allergy, Immunology, and Transplantation (DAIT), National Institute of Allergy and Infectious Diseases, NIH, Bethesda, Maryland, USA; Division of Immunopathology, Department of Pathophysiology and Allergy Research, Center for Pathophysiology, Infectiology and Immunology, Medical University of Vienna, Vienna, Austria; Swiss Institute of Allergy and Asthma Research (SIAF), University of Zurich, Davos, Switzerland; MASK-air, Montpellier, France; Medical Consulting Czarlewski, Levallois, France; Division of Allergy and Immunology, Department of Pediatrics, Cincinnati Children's Hospital Medical Center, Cincinnati, Ohio, USA; Institute of Clinical Medicine and Institute of Health Sciences, Vilnius, Lithuania; Medical Faculty of Vilnius University, Vilnius, Lithuania; Institute of Environmental medicine, Karolinska Institutet, Stockholm, Sweden; Swiss Institute of Allergy and Asthma Research (SIAF), University of Zurich, Davos, Switzerland; 6AM Data Mining, Barcelona, Spain; ARIA, Montpellier, France; MASK-air, Montpellier, France; Department of Dermatology and Allergy Centre, Odense University Hospital, Odense, Denmark; Odense Research Center for Anaphylaxis « ORCA »  Odense Denmark; Quality Use of Respiratory Medicines Group, Woolcock Institute of Medical Research, Sydney, NSW, Australia; Sydney Local Health District, Sydney, NSW, Australia; Sydney Pharmacy School, The University of Sydney, Sydney, NSW, Australia; Quebec Heart and Lung Institute, Laval University, Quebec City, Quebec, Canada; Institute of Lung Health, NIHR Biomedical Research Centre, Department of Respiratory and Infection Sciences, University of Leicester, Leicester, UK; Allergy and Clinical Immunology Unit, Mauriziano Hospital, Torino, Italy; Department of Medical Sciences, University of Torino, Torino, Italy; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; CIBER Epidemiología y Salud Pública (CIBERESP)  Barcelona Spain; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Department of Biomedical Sciences, Humanitas University, Pieve Emanuele, Milan, Italy; Personalized medicine, Asthma and Allergy, IRCCS Humanitas Research Hospital, Rozzano, Milan, Italy; SOS Allergology and Clinical Immunology, USL Toscana Centro, Prato, Italy; Division of Pediatric Pulmonary Medicine, UPMC Children's Hospital of Pittsburgh, University of Pittsburgh, Pittsburgh, Pennsylvania, USA; Pneumology Unit, Hospitais da Universidade de Coimbra, Centro Hospitalar e Universitário de Coimbra  Coimbra Portugal; UCIBIO, REQUINTE, Faculty of Pharmacy and Competence Center on Active and Healthy Ageing of University of Porto (Porto4Ageing), Porto, Portugal; Fundaçao ProAR Federal University of Bahia and GARD/WHO Planning Group  Salvador Bahia Brazil; Pirkanmaa Welfare district, Tampere, Finland; Department of Pulmonary Diseases, Cerrahpaşa Faculty of Medicine Istanbul University‐Cerrahpaşa  Istanbul Turkey; Department of Otorhinolaryngology, Amsterdam University Medical Centres, Amsterdam, the Netherlands; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Ludwig Maximilians University Munich, University Hospital Munich - Instituteand Outpatient Clinic for Occupationa, Social and Environmental Medicine, Munich, Germany; Servicio de Alergia e Immunologia, Clinica Santa Isabel, Buenos Aires, Argentina; Institute for Clinical Epidemiology and Biometry University of Wuerzburg Wuerzburg Germany; Institute of Social Medicine, Epidemiology and Health Economics Charité ‐ Universitätsmedizin Berlin Berlin Germany; State Institute of Health Bavarian Health and Food Safety Authority  Erlangen Germany; Center for Rhinology and Allergology  Wiesbaden Germany; Department of Otolaryngology, Head and Neck Surgery Universitätsmedizin Mainz Mainz Germany; Division of Internal Medicine, Asthma and Allergy, Barlicki University Hospital, Medical University of Lodz, Lodz, Poland; Division of Internal Medicine, Asthma and Allergy, Barlicki University Hospital, Medical University of Lodz, Lodz, Poland; Institute of Biomedical Sciences, Department of Pathology, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Institute of Clinical Medicine, Clinic of Chest Diseases and Allergology, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Center of Excellence in Asthma and Allergy Médica Sur Clinical Foundation and Hospital  México City Mexico; Institute for Advanced Biosciences UGA ‐ INSERM U1209 ‐ CNRS UMR5309  Site Santé La Tronche France; Department of Paediatrics, Oslo University Hospital, Oslo, Norway; Department of Pulmonary Medicine CHU Liège  Liège Belgium; GIGA I3 Research Group University of Liège  Liège Belgium; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Allergy Unit "D Kalogeromitros", 2nd Department of Dermatology and Venereology, National &amp;amp; Kapodistrian University of Athens "Attikon" University Hospital Athens Greece; Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; Department of Public Health and Health Products Paris Descartes University‐Sorbonne Paris Cité EA 4064 Paris France; Paris Municipal Department of Social Action, Childhood, and Health  Paris France; Allergy Center, CUF Descobertas Hospital, Lisbon, Portugal; Clinical &amp; Experimental Respiratory Immunoallergy, IDIBAPS, CIBERES, University of Barcelona, Barcelona, Spain; Clinical &amp;amp; Experimental Respiratory Immunoallergy, IDIBAPS, CIBERES University of Barcelona  Barcelona Spain; Department of Otolaryngology - Head and Neck Surgery, Johns Hopkins School of Medicine, Baltimore, Maryland, USA; Sean N. Parker Center for Allergy and Asthma Research, Stanford University School of Medicine, Stanford, California, USA; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP  Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; Department of Allergology Medical University of Gdańsk  Gdansk Poland; Chiba Rosai Hospital, Chiba, Japan; Chiba University Hospital, Chiba, Japan; Department of Dermatology and Allergy Centre, Odense University Hospital, Odense, Denmark; Department of Infection and Immunity, Luxembourg Institute of Health, Esch-sur-Alzette, Luxembourg; Odense Research Center for Anaphylaxis « ORCA »  Odense Denmark; Allergy Department, 2nd Pediatric Clinic, University of Athens, Athens, Greece; Allergy and Respiratory Diseases, IRCCS Policlinico San Martino - University of Genoa, Genoa, Italy; Agency of Health ASL, Salerno, Italy; Division of Allergy and Clinical Immunology, Department of Medicine, "Santa Maria della Speranza" Hospital, Battipaglia, Salerno, Italy; Postgraduate Programme in Allergy and Clinical Immunology, University of Naples Federico II, Naples, Italy; Department of Pediatrics, Nippon Medical School, Tokyo, Japan; Ecole Polytechnique de Palaiseau, Palaiseau, France; IRBA (Institut de Recherche Bio‐Médicale des Armées)  Brétigny sur Orge France; Université Paris Cité  Paris France; Section of Rhinology and Allergy, Department of Otorhinolaryngology, Head and Neck Surgery University Hospital Marburg, Philipps‐Universität Marburg  Marburg Germany; Coimbra Institute for Clinical and Biomedical Research (ICBR), Faculty of Medicine, University of Coimbra, Coimbra, Portugal; Christine Kühne Center for Allergy Research and Education (CK‐Care)  Davos Switzerland; Department of Dermatology and Allergy Biederstein, School of Medicine, Technical University of Munich, Munich, Germany; Department of Otolaryngology-Head and Neck Surgery, Eye and Ear University Hospital, Beirut, Lebanon; Department of Otorhinolaryngology-Head and Neck Surgery, Dar Al Shifa Hospital, Salmiya, Kuwait; Department of Prevention of Environmental Hazards, Allergology and Immunology, Medical University of Warsaw, Warsaw, Poland; Allergy Service, Fundacion Jimenez Diaz, Autonoma University of Madrid, CIBERES-ISCIII, Madrid, Spain; French Environment and Energy Management Agency  Angers France; Inserm, Equipe d’Epidémiologie Respiratoire Intégrative, CESP Villejuif France; Université Paris‐Saclay, UVSQ, UnivParis‐Sud  Villejuif France; PROMISE Department, University of Palermo, Palermo, Italy; NIHR Imperial Biomedical Research Centre, London, UK; National Heart and Lung Institute, Imperial College, London, UK; Usher Institute, The University of Edinburgh, Edinburgh, UK; INSERM, Université Grenoble Alpes, IAB, U 1209, Team of Environmental Epidemiology applied to Reproduction and Respiratory Health Université Joseph Fourier  Grenoble France; CINTESIS@RISE– Health Research Network, Faculty of Medicine University of Porto Porto Portugal; MEDCIDS ‐ Department of Community Medicine, Information and Health Decision Sciences; Faculty of Medicine University of Porto Porto Portugal; German Center of Lung Research (DZL)  Munich Germany; Institute of Epidemiology Helmholtz Zentrum München ‐ German Research Center for Environmental Health Neuherberg Germany; IMIM (Hospital del Mar Medical Research Institute)  Barcelona Spain; IMIM (Hospital del Mar Medical Research Institute), Barcelona, Spain; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Department of Immunoallergology Cova da Beira University Hospital Centre  Covilhã Portugal; UBIAir ‐ Clinical &amp;amp; Experimental Lung Centre and CICS‐UBI Health Sciences Research Centre University of Beira Interior  Covilhã Portugal; Skin and Allergy Hospital, Helsinki University Hospital, and University of Helsinki, Helsinki, Finland; Allergy Unit Málaga Regional University Hospital of Málaga, Malaga University, ARADyAL  Malaga Spain; Health Planning Unit, Department of Social Medicine, Faculty of Medicine, University of Crete, Heraklion, Greece; International Primary Care Respiratory Group IPCRG, Aberdeen, Scotland; Department of Lung Diseases and Clinical Allergology, University of Turku, Turku, Finland; Department of Chest Medicine, Centre Hospitalier Universitaire UCL, Namur, Belgium; Université Catholique de Louvain  Yvoir Belgium; Institute of Sciences of Food Production, National Research Council (ISPA-CNR), Bari, Italy; Unit of Geriatric Immunoallergology, University of Bari Medical School, Bari, Italy; Harvard Medical School and Channing Division of Network Medicine, Boston, USA; Department of Pulmonary Diseases, Celal Bayar University, Faculty of Medicine, Manisa, Turkey; Department of Otolaryngology Head and Neck Surgery, Beijing TongRen Hospital and Beijing Institute of Otolaryngology, Beijing, China; Allergy &amp;amp; Immunology Centre Pantai Hospital Kuala Lumpur Kuala Lumpur Malaysia; Department of Dermatology, Medical University of Graz, Graz, Austria; Faculty of Medicine, Transylvania University of Brasov, Brasov, Romania; Microbiology Department, College of Medicine, Kuwait University, Kuwait City, Kuwait; Centro Médico Teknon  Barcelona Spain; Institut d'Investigacions Biomèdiques August Pi i Sunyer (IDIBAPS)  Barcelona Spain; Department of Allergy and Immunology, Hospital Quironsalud Bizkaia, Bilbao, Spain; Clinical and Experimental Sciences, Faculty of Medicine, University of Southampton, Southampton, UK; David Hide Asthma and Allergy Research Centre, Isle of Wight, UK; Argentine Society of Allergy and Immunopathology, Buenos Aires, Argentina; Portuguese National Programme for Respiratory Diseases, Direção ‐Geral da Saúde, Faculdade de Medicina de Lisboa Instituto de Saúde Ambiental  Lisbon Portugal; Department of Otorhinolaryngology, Head and Neck, School of Medical Sciences, Universiti Sains Malaysia, Kelantan, Malaysia; Mongolian Association of Hospital Managers, Ulaanbaatar, Mongolia; Department of Respiratory Medicine, National Institute of Diseases of the Chest and Hospital, Dhaka, Bangladesh; Department of Pediatrics, Carol Davila University of Medicine and Pharmacy, Bucharest, Romania; Allergology and Immunology Fraunhofer Institute for Translational Medicine and Pharmacology ITMP  Berlin Germany; Institute of Allergology Charité – Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt‐Universität zu Berlin Berlin Germany; Division of Immunology, Allergy and Rheumatology, Department of Medicine, University of Cincinnati College of Medicine, Cincinnati, Ohio, USA; University of Central Lancashire Medical School, Preston, UK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310470889</t>
+          <t>https://openalex.org/W4321169210</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Club Cell Secretory Protein in Lung Disease: Emerging Concepts and Potential Therapeutics</t>
+          <t>Rhinitis associated with asthma is distinct from rhinitis alone: The &lt;scp&gt;ARIA‐MeDALL&lt;/scp&gt; hypothesis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Annual Review of Medicine</t>
+          <t>Allergy</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Annual Reviews</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1146/annurev-med-042921-123443</t>
+          <t>https://doi.org/10.1111/all.15679</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36450281</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36799120</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1146/annurev-med-042921-123443</t>
+          <t>https://doi.org/10.1111/all.15679</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,57 +795,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Francesca Polverino, Debra A. Stern, Eric M. Snyder, Courtney M. Wheatley‐Guy, Surya P. Bhatt, Fernando D. Martínez, Stefano Guerra, Wayne J. Morgan</t>
+          <t>Nipasiri Voraphani, Debra A. Stern, Julie G. Ledford, Amber Spangenberg, Jing Zhai, Anne L. Wright, Wayne J. Morgan, Monica Kraft, Duane L. Sherrill, John A. Curtin, Clare Murray, Adnan Čustović, Inger Kull, Jenny Hallberg, Anna Bergström, Esther Herrera‐Luis, Marilyn Halonen, Fernando D. Martínez, Angela Simpson, Erik Melén, Stefano Guerra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Pulmonary and Critical Care Medicine, Baylor College of Medicine, Houston, TX, 77030, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Geneticure, Rochester, MN, 55902, USA; Cardiovascular Diseases, Mayo Clinic Scottsdale, Scottsdale, AZ, 85259, USA; Division of Pulmonary, Allergy and Critical Care Medicine, University of Alabama at Birmingham, Birmingham, AL, 35924, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA</t>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Department of Pediatrics, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Imperial College London National Heart and Lung Institute, 90897, London, United Kingdom of Great Britain and Northern Ireland; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Karolinska Institute Institute of Environmental Medicine, 193414, Stockholm, Sweden; University of La Laguna, 16749, Department of Biochemistry, Microbiology, Cell Biology and Genetics, La Laguna, Islas Canarias, Spain; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310062070</t>
+          <t>https://openalex.org/W4385410816</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lower respiratory illnesses in childhood are associated with the presence of air trapping in early adulthood</t>
+          <t>Circulating CC16 and Asthma: A Population-based, Multicohort Study from Early Childhood through Adult Life</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Respiratory Medicine</t>
+          <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
+          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36508986</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37523710</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
+          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,47 +882,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Debra A. Stern, Wayne J. Morgan, Stefano Guerra, Fernando D. Martínez</t>
+          <t>Francesca Polverino, Debra A. Stern, Eric M. Snyder, Courtney M. Wheatley‐Guy, Surya P. Bhatt, Fernando D. Martínez, Stefano Guerra, Wayne J. Morgan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; tcarr@deptofmed.arizona.edu.; University of Arizona HSC, Tucson, Arizona, United States.; University of Arizona, Department of Pediatrics, Tucson, Arizona, United States.; University of Arizona, Tucson, United States.; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States.</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Pulmonary and Critical Care Medicine, Baylor College of Medicine, Houston, TX, 77030, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Geneticure, Rochester, MN, 55902, USA; Cardiovascular Diseases, Mayo Clinic Scottsdale, Scottsdale, AZ, 85259, USA; Division of Pulmonary, Allergy and Critical Care Medicine, University of Alabama at Birmingham, Birmingham, AL, 35924, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4311663240</t>
+          <t>https://openalex.org/W4310062070</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Elevated Childhood Insulin-related Asthma Is a Risk Factor for Reduced Lung Function</t>
+          <t>Lower respiratory illnesses in childhood are associated with the presence of air trapping in early adulthood</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>American Journal of Respiratory and Critical Care Medicine</t>
+          <t>Respiratory Medicine</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202209-1654le</t>
+          <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36521027</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36508986</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202209-1654le</t>
+          <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,47 +969,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Raffaella Nenna, Jing Zhai, Amber Spangenberg, Duane L. Sherrill, Fernando D. Martínez, Marilyn Halonen, Stefano Guerra</t>
+          <t>Tara Carr, Debra A. Stern, Wayne J. Morgan, Stefano Guerra, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Department of Maternal Infantile and Urological Sciences “Sapienza” University of Rome  Rome Italy; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA</t>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; tcarr@deptofmed.arizona.edu.; University of Arizona HSC, Tucson, Arizona, United States.; University of Arizona, Department of Pediatrics, Tucson, Arizona, United States.; University of Arizona, Tucson, United States.; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327604009</t>
+          <t>https://openalex.org/W4311663240</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cytomegalovirus serology in young to mid‐adult life and decline of lung function</t>
+          <t>Elevated Childhood Insulin-related Asthma Is a Risk Factor for Reduced Lung Function</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Clinical Respiratory Journal</t>
+          <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/crj.13600</t>
+          <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36924061</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36521027</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/crj.13600</t>
+          <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,57 +1056,57 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Stefano Guerra, Julie G. Ledford, Erik Melén, Iris Lavi, Anne-Elie Carsin, Debra A. Stern, Jing Zhai, Marta Vidal, Mariona Bustamante, Kenneth J. Addison, Renata G. Vallecillo, Dean Billheimer, Gerard H. Koppelman, Judith García-Aymerich, Nathanaël Lemonnier, Montserrat Fitó, Carlota Dobaño, Simon Kebede Merid, Inger Kull, Rosemary McEachan, John Wright, Leda Chatzi, Manolis Kogevinas, Daniela Porta, Silvia Narduzzi, Ferrán Ballester, Ana Esplugues, Carlos Zabaleta, Amaia Irizar, Jordi Sunyer, Marilyn Halonen, Jean Bousquet, Fernando D. Martínez, Josep M. Antó</t>
+          <t>Raffaella Nenna, Jing Zhai, Amber Spangenberg, Duane L. Sherrill, Fernando D. Martínez, Marilyn Halonen, Stefano Guerra</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center,; ISGlobal, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Cellular and Molecular Medicine,; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Instituto de Salud Global Barcelona, Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Asthma and Airway Disease Research Center,; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Molecular and Cellular Biology,; BIO5 Institute, and; Department of Epidemiology and Biostatistics, University of Arizona Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona;; University of Groningen, University Medical Center Groningen, Department of Pulmonology and Pediatric Allergy, Beatrix Children's Hospital, Groningen, Netherlands; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, 38700 La Tronche, France;; CIBER de Fisiopatología de la Obesidad y Nutricion (CIBEROBN), Institute of Health Carlos III, Madrid, Spain;; Cardiovascular Risk and Nutrition Group and; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; Department of Clinical Science and Education and; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Bradford Institute for Health Research, Bradford, United Kingdom;; Bradford Institute for Health Research, Bradford, United Kingdom of Great Britain and Northern Ireland; Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; Pediatrics Service, Hospital de Zumárraga, Gipuzkoa, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Respiratory and Environmental Epidemiology Team, INSERM 1018, CESP Centre, Villejuif, France; University Hospital Montpellier, France; and; Asthma and Airway Disease Research Center,; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;</t>
+          <t>Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Department of Maternal Infantile and Urological Sciences “Sapienza” University of Rome  Rome Italy; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA; Asthma and Airway Disease Research Center University of Arizona  Tucson Arizona USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4286750379</t>
+          <t>https://openalex.org/W4327604009</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Creatine Kinase Is Decreased in Childhood Asthma</t>
+          <t>Cytomegalovirus serology in young to mid‐adult life and decline of lung function</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>American Journal of Respiratory and Critical Care Medicine</t>
+          <t>Clinical Respiratory Journal</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
+          <t>https://doi.org/10.1111/crj.13600</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35876143</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36924061</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
+          <t>https://doi.org/10.1111/crj.13600</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,57 +1143,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Alane Blythe C. Dy, Stefano Guerra, Paul Langlais, Julie G. Ledford</t>
+          <t>Stefano Guerra, Julie G. Ledford, Erik Melén, Iris Lavi, Anne-Elie Carsin, Debra A. Stern, Jing Zhai, Marta Vidal, Mariona Bustamante, Kenneth J. Addison, Renata G. Vallecillo, Dean Billheimer, Gerard H. Koppelman, Judith Garcia‐Aymerich, Nathanaël Lemonnier, Montserrat Fitó, Carlota Dobaño, Simon Kebede Merid, Inger Kull, Rosemary McEachan, John Wright, Leda Chatzi, Manolis Kogevinas, Daniela Porta, Silvia Narduzzi, Ferrán Ballester, Ana Esplugues, Carlos Zabaleta, Amaia Irizar, Jordi Sunyer, Marilyn Halonen, Jean Bousquet, Fernando D. Martínez, Josep M. Antó</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
+          <t>Asthma and Airway Disease Research Center,; ISGlobal, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Cellular and Molecular Medicine,; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Instituto de Salud Global Barcelona, Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Asthma and Airway Disease Research Center,; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Molecular and Cellular Biology,; BIO5 Institute, and; Department of Epidemiology and Biostatistics, University of Arizona Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona;; University of Groningen, University Medical Center Groningen, Department of Pulmonology and Pediatric Allergy, Beatrix Children's Hospital, Groningen, Netherlands; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, 38700 La Tronche, France;; CIBER de Fisiopatología de la Obesidad y Nutricion (CIBEROBN), Institute of Health Carlos III, Madrid, Spain;; Cardiovascular Risk and Nutrition Group and; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; Department of Clinical Science and Education and; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Bradford Institute for Health Research, Bradford, United Kingdom;; Bradford Institute for Health Research, Bradford, United Kingdom of Great Britain and Northern Ireland; Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; Pediatrics Service, Hospital de Zumárraga, Gipuzkoa, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Respiratory and Environmental Epidemiology Team, INSERM 1018, CESP Centre, Villejuif, France; University Hospital Montpellier, France; and; Asthma and Airway Disease Research Center,; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385461556</t>
+          <t>https://openalex.org/W4286750379</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during Mycoplasma pneumoniae Infection in Mouse Tracheal Epithelial Cells</t>
+          <t>Creatine Kinase Is Decreased in Childhood Asthma</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cells12151984</t>
+          <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37566063</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35876143</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cells12151984</t>
+          <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,57 +1230,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nipasiri Voraphani, Debra A. Stern, Julie G. Ledford, Amber Spangenberg, Jing Zhai, Anne L. Wright, Wayne J. Morgan, Monica Kraft, Duane L. Sherrill, John A. Curtin, Clare Murray, Adnan Čustović, Inger Kull, Jenny Hallberg, Anna Bergström, Esther Herrera‐Luis, Marilyn Halonen, Fernando D. Martínez, Angela Simpson, Erik Melén, Stefano Guerra</t>
+          <t>Natalie Iannuzo, Alane Blythe C. Dy, Stefano Guerra, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Department of Pediatrics, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Imperial College London National Heart and Lung Institute, 90897, London, United Kingdom of Great Britain and Northern Ireland; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Karolinska Institute Institute of Environmental Medicine, 193414, Stockholm, Sweden; University of La Laguna, 16749, Department of Biochemistry, Microbiology, Cell Biology and Genetics, La Laguna, Islas Canarias, Spain; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States;</t>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385410816</t>
+          <t>https://openalex.org/W4385461556</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Circulating CC16 and Asthma: A Population-based, Multicohort Study from Early Childhood through Adult Life</t>
+          <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during Mycoplasma pneumoniae Infection in Mouse Tracheal Epithelial Cells</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>American Journal of Respiratory and Critical Care Medicine</t>
+          <t>Cells</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
+          <t>https://doi.org/10.3390/cells12151984</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37523710</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37566063</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
+          <t>https://doi.org/10.3390/cells12151984</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Philip Harber, Melissa Furlong, Debra A. Stern, Wayne J. Morgan, Anne L. Wright, Stefano Guerra, Fernando D. Martínez</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, and; Mel and Enid Zuckerman College of Public Health,; Mel and Enid Zuckerman College of Public Health,; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312067545</t>
+          <t>https://openalex.org/W4387898634</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Association of Childhood Respiratory Status with Adult Occupational Exposures in a Birth Cohort</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Annals of the American Thoracic Society</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36538681</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>J. Jarczyk, Debbie Stern, Silvia López, Arturo Chavez, Mark J. Snyder, A. Larry Wright, Stefano Guerra, Tara F. Carr, FJ Martinez, William P. Morgan</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dept of Pediatrics, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States</t>
+          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367609570</t>
+          <t>https://openalex.org/W4388485265</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Congruence Between Remote and In-person Spirometry in the Tucson Children's Respiratory Study</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Alane Blythe C. Dy, Stefano Guerra, Paul Langlais, Julie G. Ledford</t>
+          <t>Philip Harber, Melissa Furlong, Debra A. Stern, Wayne J. Morgan, Anne L. Wright, Stefano Guerra, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; </t>
+          <t>Asthma and Airway Disease Research Center, and; Mel and Enid Zuckerman College of Public Health,; Mel and Enid Zuckerman College of Public Health,; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379374962</t>
+          <t>https://openalex.org/W4312067545</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during &amp;lt;em&amp;gt;Mycoplasma pneumoniae&amp;lt;/em&amp;gt; Infection</t>
+          <t>Association of Childhood Respiratory Status with Adult Occupational Exposures in a Birth Cohort</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Annals of the American Thoracic Society</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
+          <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36538681</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
+          <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,57 +1578,57 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Daniel Aguilar, Nathanaël Lemonnier, Erik Melén, Mariona Bustamante, Olena Gruzieva, Stefano Guerra, Thomas Keil, Gerard H. Koppelman, Juan C. Celedón, Josep M. Antó, Jean Bousquet</t>
+          <t>J. Jarczyk, Debbie Stern, Silvia López, Arturo Chavez, Mark J. Snyder, A. Larry Wright, Stefano Guerra, Tara Carr, FJ Martinez, William P. Morgan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6AM Data Mining, Barcelona, Spain; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, La Tronche, France; Department of Clinical Science and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Institute of Environmental Medicine, Karolinska Institutet, Stockholm, Sweden; Asthma and Airway Disease Research Center, University of Arizona, Tucson, USA; Institute for Clinical Epidemiology and Biometry, University of Würzburg, Würzburg, Germany; Department of Pediatric Pulmonology and Pediatric Allergology, GRIAC Research Institute, Beatrix Children’s Hospital, University Medical Center Groningen, University of Groningen, Groningen, The Netherlands; Division of Pediatric Pulmonary Medicine, UPMC Children’s Hospital of Pittsburgh, University of Pittsburgh, Pittsburgh, USA; CIBER Epidemiología y Salud Pública (CIBERESP), Madrid, Spain; Institute of Allergology, Charité–Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt-Universität zu Berlin, Berlin, Germany</t>
+          <t>Dept of Pediatrics, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385780840</t>
+          <t>https://openalex.org/W4367609570</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Distinction between rhinitis alone and rhinitis with asthma using interactomics</t>
+          <t>Congruence Between Remote and In-person Spirometry in the Tucson Children's Respiratory Study</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Scientific Reports</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nature Portfolio</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41598-023-39987-6</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37573373</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41598-023-39987-6</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,42 +1665,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stefano Guerra, Sirio Zolea</t>
+          <t>Natalie Iannuzo, Alane Blythe C. Dy, Stefano Guerra, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">; </t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386284562</t>
+          <t>https://openalex.org/W4379374962</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Populism and Constitutional Democracy in Times of Crisis</t>
+          <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during &amp;lt;em&amp;gt;Mycoplasma pneumoniae&amp;lt;/em&amp;gt; Infection</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>La Cittadinanza europea</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FrancoAngeli</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3280/ceu2023-001007</t>
+          <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1710,17 +1710,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3280/ceu2023-001007</t>
+          <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,57 +1752,57 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anne-Elie Carsin, Judith García-Aymerich, Simone Accordini, Shyamali C. Dharmage, Bénédicte Leynaert, Mercedes Heras, Lidia Casas, Seraina Caviezel, Pascal Demoly, Bertil Forsberg, Þórarinn Gíslason, Angelo Guido Corsico, Christer Janson, Rain Jõgi, Jesús Martínez-Moratalla, Dennis Nowak, Leopoldo Palacios Gómez, Isabelle Pin, Nicole Probst‐Hensch, Chantal Raherison‐Semjen, Giulia Squillacioti, Cecilie Svanes, Kjell Torén, Isabel Urrutia, Ismael Huerta, Josep M. Antó, Déborah Jarvis, Stefano Guerra</t>
+          <t>Daniel Aguilar, Nathanaël Lemonnier, Erik Melén, Mariona Bustamante, Olena Gruzieva, Stefano Guerra, Thomas Keil, Gerard H. Koppelman, Juan C. Celedón, Josep M. Antó, Jean Bousquet</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ISGlobal Instituto de Salud Global, Campus Mar, Barcelona, Catalunya, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; Unit of Epidemiology and Medical Statistics, Department of Diagnostics and Public Health, University of Verona, Verona, Italy; Allergy and Lung Health Unit, School of Population and Global Health, The University of Melbourne, Parkville, Victoria, Australia; Université Paris-Saclay, UVSQ, Univ Paris-Sud, Inserm, INSERM, Paris, France; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; Institute for Environment and Sustainable Development (IMDO), University of Antwerp, Antwerpen, Belgium; Social Epidemiology and Health Policy, Department of Family Medicine and Population Health, University of Antwerp, Antwerpen, Belgium; Epidemiology and Public Health, Swiss Tropical and Public Health Institute, Basel, Switzerland; Département de Pneumologie et Addictologie, University Hospital of Montpellier, Montpellier, France; IDESP, University of Montpellier - Inserm UMR UA11, Montpellier, France; Department of Public Health and Clinical Medicine, Umeå University, Umeå, Sweden; Department of Sleep, Landspitali University Hospital, Reykjavik, Iceland; Medical Faculty, University of Iceland, Iceland, Iceland; Department of Internal Medicine and Therapeutics, University of Pavia, Italy, Italy; Division of Respiratory Diseases, Fondazione IRCCS Policlinico San Matteo—University of Pavia, Pavia, Italy; Department of Medical Sciences, Respiratory, Allergy and Sleep Research, Uppsala University, Uppsala, Sweden; Lung Clinic, Tartu University Hospital, Tartu, Estonia; Faculty of Medicine of Albacete, General University Hospital of Albacete, Albacete, Spain; Institute and Clinic for Occupational and Environmental Medicine, University Hospital, LMU Munich, Comprehensive Pneumology Centre Munich, member DZL, German Centre for Lung Research, Munich, Germany; Distrito Sanitario Huelva-Costa, Huelva, Spain; Department of Pediatrics, CHU de Grenoble Alpes, Grenoble, France; Inserm, UMR 1209, Institute for Advanced Biosciences, Grenoble, France; Epidemiology and Public Health, Swiss Tropical and Public Health Institute, Basel, Switzerland; Inserm, UMR 1219, Université de Bordeaux, Bordeaux, France; Department of Public Health and Pediatrics, University of Turin, Torino, Piemonte, Italy; Centre for International Health, Department of Global Public Health and Primary Care, University of Bergen, Bergen, Norway; Department of Occupational Medicine, Haukeland University Hospital, Bergen, Norway; Department of Occupational and Environmental Medicine, Sahlgrenska University Hospital, Gothenburg, Sweden; Department of Occupational and Environmental, School of Public Health and Community Medicine, Institute of Medicine, Sahlgrenska Academy at University of Gothenburg, Gothenburg, Sweden; Pulmonology Department, Galdakao Hospital, Biocruces Bizkaia, Spain; Epidemiological Surveillance Section, Directorate General of Public Health, Oviedo, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; National Heart and Lung Institute, Imperial College, London, UK; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; ISGlobal, Campus mar, Barcelona, Catalunya, Spain</t>
+          <t>6AM Data Mining, Barcelona, Spain; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, La Tronche, France; Department of Clinical Science and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain; Institute of Environmental Medicine, Karolinska Institutet, Stockholm, Sweden; Asthma and Airway Disease Research Center, University of Arizona, Tucson, USA; Institute for Clinical Epidemiology and Biometry, University of Würzburg, Würzburg, Germany; Department of Pediatric Pulmonology and Pediatric Allergology, GRIAC Research Institute, Beatrix Children’s Hospital, University Medical Center Groningen, University of Groningen, Groningen, The Netherlands; Division of Pediatric Pulmonary Medicine, UPMC Children’s Hospital of Pittsburgh, University of Pittsburgh, Pittsburgh, USA; CIBER Epidemiología y Salud Pública (CIBERESP), Madrid, Spain; Institute of Allergology, Charité–Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin and Humboldt-Universität zu Berlin, Berlin, Germany</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387093076</t>
+          <t>https://openalex.org/W4385780840</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Spirometric patterns in young and middle-aged adults: a 20-year European study</t>
+          <t>Distinction between rhinitis alone and rhinitis with asthma using interactomics</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Thorax</t>
+          <t>Scientific Reports</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BMJ</t>
+          <t>Nature Portfolio</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/thorax-2022-219696</t>
+          <t>https://doi.org/10.1038/s41598-023-39987-6</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1822,12 +1822,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37758456</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37573373</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/thorax-2022-219696</t>
+          <t>https://doi.org/10.1038/s41598-023-39987-6</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,42 +1839,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael G. Johnson, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
+          <t>Stefano Guerra, Sirio Zolea</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; Basis Tucson North, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States</t>
+          <t xml:space="preserve">; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387979514</t>
+          <t>https://openalex.org/W4386284562</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
+          <t>Populism and Constitutional Democracy in Times of Crisis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>La Cittadinanza europea</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>FrancoAngeli</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+          <t>https://doi.org/10.3280/ceu2023-001007</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+          <t>https://doi.org/10.3280/ceu2023-001007</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,57 +1926,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael D. L. Johnson, Joselyn Rojas, Francesca Polverino, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
+          <t>Anne-Elie Carsin, Judith Garcia‐Aymerich, Simone Accordini, Shyamali C. Dharmage, Bénédicte Leynaert, Mercedes Heras, Lidia Casas, Seraina Caviezel, Pascal Demoly, Bertil Forsberg, Þórarinn Gíslason, Angelo Guido Corsico, Christer Janson, Rain Jögi, Jesús Martínez-Moratalla, Dennis Nowak, Leopoldo Palacios Gómez, Isabelle Pin, Nicole Probst‐Hensch, Chantal Raherison‐Semjen, Giulia Squillacioti, Cecilie Svanes, Kjell Torén, Isabel Urrutia, Ismael Huerta, Josep M. Antó, Déborah Jarvis, Stefano Guerra</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; BASIS Tucson North, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Baylor College of Medicine, Houston, TX, United States; Baylor College of Medicine, Houston, TX, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Genetics, Genomics, and Precision Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States</t>
+          <t>ISGlobal Instituto de Salud Global, Campus Mar, Barcelona, Catalunya, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; Unit of Epidemiology and Medical Statistics, Department of Diagnostics and Public Health, University of Verona, Verona, Italy; Allergy and Lung Health Unit, School of Population and Global Health, The University of Melbourne, Parkville, Victoria, Australia; Université Paris-Saclay, UVSQ, Univ Paris-Sud, Inserm, INSERM, Paris, France; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; Institute for Environment and Sustainable Development (IMDO), University of Antwerp, Antwerpen, Belgium; Social Epidemiology and Health Policy, Department of Family Medicine and Population Health, University of Antwerp, Antwerpen, Belgium; Epidemiology and Public Health, Swiss Tropical and Public Health Institute, Basel, Switzerland; Département de Pneumologie et Addictologie, University Hospital of Montpellier, Montpellier, France; IDESP, University of Montpellier - Inserm UMR UA11, Montpellier, France; Department of Public Health and Clinical Medicine, Umeå University, Umeå, Sweden; Department of Sleep, Landspitali University Hospital, Reykjavik, Iceland; Medical Faculty, University of Iceland, Iceland, Iceland; Department of Internal Medicine and Therapeutics, University of Pavia, Italy, Italy; Division of Respiratory Diseases, Fondazione IRCCS Policlinico San Matteo—University of Pavia, Pavia, Italy; Department of Medical Sciences, Respiratory, Allergy and Sleep Research, Uppsala University, Uppsala, Sweden; Lung Clinic, Tartu University Hospital, Tartu, Estonia; Faculty of Medicine of Albacete, General University Hospital of Albacete, Albacete, Spain; Institute and Clinic for Occupational and Environmental Medicine, University Hospital, LMU Munich, Comprehensive Pneumology Centre Munich, member DZL, German Centre for Lung Research, Munich, Germany; Distrito Sanitario Huelva-Costa, Huelva, Spain; Department of Pediatrics, CHU de Grenoble Alpes, Grenoble, France; Inserm, UMR 1209, Institute for Advanced Biosciences, Grenoble, France; Epidemiology and Public Health, Swiss Tropical and Public Health Institute, Basel, Switzerland; Inserm, UMR 1219, Université de Bordeaux, Bordeaux, France; Department of Public Health and Pediatrics, University of Turin, Torino, Piemonte, Italy; Centre for International Health, Department of Global Public Health and Primary Care, University of Bergen, Bergen, Norway; Department of Occupational Medicine, Haukeland University Hospital, Bergen, Norway; Department of Occupational and Environmental Medicine, Sahlgrenska University Hospital, Gothenburg, Sweden; Department of Occupational and Environmental, School of Public Health and Community Medicine, Institute of Medicine, Sahlgrenska Academy at University of Gothenburg, Gothenburg, Sweden; Pulmonology Department, Galdakao Hospital, Biocruces Bizkaia, Spain; Epidemiological Surveillance Section, Directorate General of Public Health, Oviedo, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain, Spain; ISGlobal, Campus mar, Barcelona, Catalunya, Spain; Universita Pompeu Fabra (UPF), Barcelona, Spain; National Heart and Lung Institute, Imperial College, London, UK; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; ISGlobal, Campus mar, Barcelona, Catalunya, Spain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388832621</t>
+          <t>https://openalex.org/W4387093076</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
+          <t>Spirometric patterns in young and middle-aged adults: a 20-year European study</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Frontiers in Immunology</t>
+          <t>Thorax</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>BMJ</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+          <t>https://doi.org/10.1136/thorax-2022-219696</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37758456</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+          <t>https://doi.org/10.1136/thorax-2022-219696</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,27 +2013,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael G. Johnson, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; Basis Tucson North, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387898634</t>
+          <t>https://openalex.org/W4387979514</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,57 +2100,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael D. L. Johnson, Joselyn Rojas, Francesca Polverino, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson</t>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; BASIS Tucson North, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Baylor College of Medicine, Houston, TX, United States; Baylor College of Medicine, Houston, TX, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Genetics, Genomics, and Precision Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388485265</t>
+          <t>https://openalex.org/W4388832621</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Frontiers in Immunology</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
